--- a/UDP-sockets/FTP75.xlsx
+++ b/UDP-sockets/FTP75.xlsx
@@ -8,34 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHALID HALBA\Desktop\UDP-FMU\UDP-sockets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E6E40-5BFF-4B04-8EE8-6F3B95B6513F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F73C24-5142-4A3A-8EDB-8B51869E4758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="710" yWindow="3350" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTP75" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'FTP75'!$A$2:$A$192</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'FTP75'!$A$2:$A$180</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'FTP75'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'FTP75'!$B$2:$B$192</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'FTP75'!$B$2:$B$180</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'FTP75'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'FTP75'!$C$2:$C$192</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'FTP75'!$C$2:$C$180</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>speed (kmph)</t>
+    <t>obstacle detection signal (boolean)</t>
   </si>
   <si>
-    <t>obstacle detection signal (boolean)</t>
+    <t>•</t>
+  </si>
+  <si>
+    <t>speed after reacting to obstacle detection  (kmph)</t>
   </si>
 </sst>
 </file>
@@ -596,19 +599,39 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.8801946008835603E-2"/>
-          <c:y val="3.8819021638043273E-2"/>
-          <c:w val="0.89494388111131706"/>
-          <c:h val="0.71519063406547867"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -640,592 +663,556 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'FTP75'!$A$2:$A$192</c:f>
+              <c:f>'FTP75'!$A$2:$A$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="151">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="152">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="153">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="154">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="155">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="156">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="157">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="158">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="159">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="160">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="161">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="162">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="163">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="164">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="165">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="166">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="167">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="168">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="169">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="170">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="171">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="172">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="173">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="174">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="175">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="176">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="177">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="178">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FTP75'!$C$2:$C$192</c:f>
+              <c:f>'FTP75'!$C$2:$C$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1524,7 +1511,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1</c:v>
@@ -1587,67 +1574,67 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
@@ -1761,42 +1748,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1805,7 +1756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1990-4EA9-8B55-1314FC4AEF0D}"/>
+              <c16:uniqueId val="{00000001-406A-4811-945F-7619D2A2484C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1819,8 +1770,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="706002536"/>
-        <c:axId val="706002208"/>
+        <c:axId val="822129056"/>
+        <c:axId val="822127744"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1834,7 +1785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed (kmph)</c:v>
+                  <c:v>speed after reacting to obstacle detection  (kmph)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1853,592 +1804,556 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FTP75'!$A$2:$A$192</c:f>
+              <c:f>'FTP75'!$A$2:$A$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="151">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="152">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="153">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="154">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="155">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="156">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="157">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="158">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="159">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="160">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="161">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="162">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="163">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="164">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="165">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="166">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="167">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="168">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="169">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="170">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="171">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="172">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="173">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="174">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="175">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="176">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="177">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="178">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FTP75'!$B$2:$B$192</c:f>
+              <c:f>'FTP75'!$B$2:$B$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2479,142 +2394,142 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.31</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10.62</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>15.93</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>21.24</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>26.55</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>31.86</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>35.729999999999997</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>39.11</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>41.52</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>42.49</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>41.36</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>40.4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>39.75</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>40.229999999999997</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>40.549999999999997</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>40.880000000000003</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>41.52</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43.77</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>42.65</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>38.619999999999997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>36.53</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>31.22</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>28.48</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>27.68</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>29.13</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>29.93</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>32.19</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>35.729999999999997</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>39.43</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43.94</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>49.09</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>53.91</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>58.26</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>60.03</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>63.25</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>65.180000000000007</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>67.75</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>70.010000000000005</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>72.58</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>74.03</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>75.319999999999993</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>76.44</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>76.44</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>76.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>76.12</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>75.959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>75.64</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>75.64</c:v>
@@ -2629,91 +2544,91 @@
                   <c:v>75.64</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>75.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>75.959999999999994</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>76.28</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>77.09</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>78.05</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>79.02</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>79.66</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>80.47</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>81.430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>82.08</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>82.88</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>84.01</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>85.62</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>87.07</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>87.87</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>88.35</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>88.51</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>88.35</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>87.87</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>87.87</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>87.87</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>88.19</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>88.67</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>89.32</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>89.64</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>90.28</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>90.61</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>91.09</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91.25</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>91.25</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90.93</c:v>
+                  <c:v>91.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>90.93</c:v>
@@ -2731,127 +2646,127 @@
                   <c:v>90.93</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>90.77</c:v>
                 </c:pt>
-                <c:pt idx="98">
-                  <c:v>90.28</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>88.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>87.87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>87.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>82.88</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.04</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.36</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>83.85</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>84.49</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>86.91</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>86.42</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>86.26</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>86.74</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>86.91</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>87.07</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>87.07</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>86.58</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>85.94</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>85.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>84.65</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>83.85</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>84.33</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>83.69</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>83.53</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>83.2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>82.88</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>83.04</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>83.36</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>83.85</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>84.49</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>85.3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>86.1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>86.91</c:v>
-                </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>88.35</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>89.16</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>89.48</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>90.12</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>90.12</c:v>
                 </c:pt>
                 <c:pt idx="132">
+                  <c:v>90.12</c:v>
+                </c:pt>
+                <c:pt idx="133">
                   <c:v>89.8</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>88.84</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>87.71</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>86.26</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>84.49</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>82.88</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>82.88</c:v>
@@ -2860,25 +2775,25 @@
                   <c:v>82.88</c:v>
                 </c:pt>
                 <c:pt idx="140">
+                  <c:v>82.88</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>82.24</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>80.63</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>80.47</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>80.63</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>80.47</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>79.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>79.66</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>79.66</c:v>
@@ -2887,130 +2802,94 @@
                   <c:v>79.66</c:v>
                 </c:pt>
                 <c:pt idx="149">
+                  <c:v>79.66</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>79.02</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>78.209999999999994</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>77.41</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>75.959999999999994</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>74.19</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>72.42</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>70.489999999999995</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>68.56</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>66.790000000000006</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>64.86</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>61.96</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>59.55</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>56.65</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>54.4</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>52.3</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>50.69</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>49.25</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>49.09</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>48.28</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>46.67</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>44.26</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>39.909999999999997</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>34.6</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>32.35</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>30.74</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>29.77</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>27.36</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>24.95</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17.38</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>12.88</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>7.56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,7 +2897,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1990-4EA9-8B55-1314FC4AEF0D}"/>
+              <c16:uniqueId val="{00000000-406A-4811-945F-7619D2A2484C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3030,14 +2909,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="481752232"/>
-        <c:axId val="481753216"/>
+        <c:axId val="596176408"/>
+        <c:axId val="596179360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="481752232"/>
+        <c:axId val="596176408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="150"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3078,18 +2957,32 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481753216"/>
+        <c:crossAx val="596179360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481753216"/>
+        <c:axId val="596179360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3112,9 +3005,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3124,12 +3020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481752232"/>
+        <c:crossAx val="596176408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="706002208"/>
+        <c:axId val="822127744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3158,9 +3054,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3170,13 +3069,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706002536"/>
+        <c:crossAx val="822129056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="706002536"/>
+        <c:axId val="822129056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706002208"/>
+        <c:crossAx val="822127744"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3194,7 +3093,7 @@
       </c:catAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -3202,16 +3101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20266549493813277"/>
-          <c:y val="0.87498445917944467"/>
-          <c:w val="0.6232404386951631"/>
-          <c:h val="8.9927821522309714E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3225,7 +3114,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3845,23 +3734,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>450849</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3D7D8-D4BC-4C61-A6E5-764D7160512C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FCF425-E181-4B5D-9633-E4ACB7C6B935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,16 +4068,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" customWidth="1"/>
+    <col min="2" max="3" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -4196,15 +4084,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4215,7 +4103,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -4226,7 +4114,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -4237,7 +4125,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -4248,7 +4136,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -4259,7 +4147,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -4270,7 +4158,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -4281,7 +4169,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -4292,7 +4180,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -4303,7 +4191,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -4314,7 +4202,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -4325,7 +4213,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -4336,7 +4224,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -4347,10 +4235,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>5.31</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4358,10 +4246,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>10.62</v>
+        <v>5.31</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4369,10 +4257,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>15.93</v>
+        <v>10.62</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4380,10 +4268,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>21.24</v>
+        <v>15.93</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4391,10 +4279,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>26.55</v>
+        <v>21.24</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4402,10 +4290,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>31.86</v>
+        <v>26.55</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4413,10 +4301,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>35.729999999999997</v>
+        <v>31.86</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4424,10 +4312,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>39.11</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4435,10 +4323,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>41.52</v>
+        <v>39.11</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4446,10 +4334,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>42.49</v>
+        <v>41.52</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4457,10 +4345,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>41.36</v>
+        <v>42.49</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4468,10 +4356,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>40.4</v>
+        <v>41.36</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4479,10 +4367,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>39.75</v>
+        <v>40.4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4490,10 +4378,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>40.229999999999997</v>
+        <v>39.75</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4501,10 +4389,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>40.549999999999997</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4512,10 +4400,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>40.880000000000003</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4523,10 +4411,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>41.52</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4534,186 +4422,189 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
+        <v>41.52</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
         <v>43.77</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>181</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
         <v>42.65</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>182</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
         <v>38.619999999999997</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>183</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
         <v>36.53</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>184</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
         <v>31.22</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>185</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
         <v>28.48</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>186</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
         <v>27.68</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>187</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
         <v>29.13</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>188</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
         <v>29.93</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>189</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
         <v>32.19</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>190</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
         <v>35.729999999999997</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>191</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
         <v>39.43</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>192</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
         <v>43.94</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>193</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
         <v>49.09</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>194</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
         <v>53.91</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>195</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
         <v>58.26</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>196</v>
-      </c>
-      <c r="B48" s="1">
-        <v>60.03</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4721,10 +4612,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>63.25</v>
+        <v>60.03</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4732,10 +4623,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>65.180000000000007</v>
+        <v>63.25</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4743,10 +4634,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>67.75</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4754,10 +4645,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>70.010000000000005</v>
+        <v>67.75</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4765,10 +4656,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>72.58</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4776,10 +4667,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>74.03</v>
+        <v>72.58</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4787,10 +4678,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>75.319999999999993</v>
+        <v>74.03</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4798,10 +4689,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>76.44</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4809,7 +4700,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>76.44</v>
@@ -4820,10 +4711,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>76.12</v>
+        <v>76.44</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4831,10 +4722,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>75.959999999999994</v>
+        <v>76.12</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4842,10 +4733,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>75.64</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4853,7 +4744,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>75.64</v>
@@ -4864,7 +4755,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>75.64</v>
@@ -4875,7 +4766,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>75.64</v>
@@ -4886,7 +4777,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>75.64</v>
@@ -4897,10 +4788,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>75.959999999999994</v>
+        <v>75.64</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4908,10 +4799,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>76.28</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4919,10 +4810,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>77.09</v>
+        <v>76.28</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4930,10 +4821,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>78.05</v>
+        <v>77.09</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4941,10 +4832,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>79.02</v>
+        <v>78.05</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4952,10 +4843,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>79.66</v>
+        <v>79.02</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4963,10 +4854,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>80.47</v>
+        <v>79.66</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4974,10 +4865,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>81.430000000000007</v>
+        <v>80.47</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4985,10 +4876,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>82.08</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4996,10 +4887,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>82.88</v>
+        <v>82.08</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5007,10 +4898,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>84.01</v>
+        <v>82.88</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5018,10 +4909,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>85.62</v>
+        <v>84.01</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5029,10 +4920,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>87.07</v>
+        <v>85.62</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5040,10 +4931,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>87.87</v>
+        <v>87.07</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5051,10 +4942,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>88.35</v>
+        <v>87.87</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5062,10 +4953,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>88.51</v>
+        <v>88.35</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5073,10 +4964,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>88.35</v>
+        <v>88.51</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5084,10 +4975,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>87.87</v>
+        <v>88.35</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5095,7 +4986,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>87.87</v>
@@ -5106,10 +4997,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>88.19</v>
+        <v>87.87</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5117,10 +5008,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>88.67</v>
+        <v>88.19</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5128,10 +5019,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>89.32</v>
+        <v>88.67</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5139,10 +5030,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>89.64</v>
+        <v>89.32</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5150,10 +5041,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>90.28</v>
+        <v>89.64</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5161,10 +5052,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>90.61</v>
+        <v>90.28</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5172,10 +5063,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>91.09</v>
+        <v>90.61</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5183,10 +5074,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>91.25</v>
+        <v>91.09</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5194,7 +5085,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>91.25</v>
@@ -5205,10 +5096,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>90.93</v>
+        <v>91.25</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5216,7 +5107,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>90.93</v>
@@ -5227,7 +5118,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>90.93</v>
@@ -5238,7 +5129,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>90.93</v>
@@ -5249,7 +5140,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>90.93</v>
@@ -5260,7 +5151,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>90.93</v>
@@ -5271,10 +5162,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>90.77</v>
+        <v>90.93</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5282,10 +5173,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>90.28</v>
+        <v>90.77</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5293,21 +5184,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>89.8</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>88.67</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5315,10 +5206,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>87.87</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5326,10 +5217,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>87.23</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5337,10 +5228,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>86.91</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5348,10 +5239,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>86.42</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5359,10 +5250,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>86.26</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5370,10 +5261,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>86.74</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5381,10 +5272,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>86.91</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5392,10 +5283,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>87.07</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5403,10 +5294,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>87.07</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5414,10 +5305,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>86.58</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5425,10 +5316,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>85.94</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5436,10 +5327,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>85.3</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5447,10 +5338,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>84.65</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5458,10 +5349,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>83.85</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5469,10 +5360,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>84.33</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5480,10 +5371,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>83.69</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5491,10 +5382,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>83.53</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5502,10 +5393,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5513,10 +5404,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>82.88</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5524,241 +5415,241 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>83.04</v>
+        <v>82.88</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>83.36</v>
+        <v>83.04</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>83.85</v>
+        <v>83.36</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>84.49</v>
+        <v>83.85</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>85.3</v>
+        <v>84.49</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>86.1</v>
+        <v>85.3</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>86.91</v>
+        <v>86.1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>88.35</v>
+        <v>86.91</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>89.16</v>
+        <v>88.35</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>89.48</v>
+        <v>89.16</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>90.12</v>
+        <v>89.48</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>90.12</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>89.8</v>
+        <v>90.12</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>88.84</v>
+        <v>89.8</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>87.71</v>
+        <v>88.84</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>86.26</v>
+        <v>87.71</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
-        <v>84.49</v>
+        <v>86.26</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>82.88</v>
+        <v>84.49</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>82.88</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>82.88</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>82.24</v>
+        <v>82.88</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>80.63</v>
+        <v>82.24</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5766,10 +5657,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>80.47</v>
+        <v>80.63</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5777,10 +5668,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>80.63</v>
+        <v>80.47</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5788,10 +5679,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>80.47</v>
+        <v>80.63</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5799,10 +5690,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
-        <v>79.819999999999993</v>
+        <v>80.47</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5810,10 +5701,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>79.66</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5821,7 +5712,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>79.66</v>
@@ -5832,7 +5723,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>79.66</v>
@@ -5843,10 +5734,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>79.02</v>
+        <v>79.66</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5854,10 +5745,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>78.209999999999994</v>
+        <v>79.02</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5865,10 +5756,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>77.41</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5876,10 +5767,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>75.959999999999994</v>
+        <v>77.41</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5887,10 +5778,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
-        <v>74.19</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5898,10 +5789,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
-        <v>72.42</v>
+        <v>74.19</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5909,10 +5800,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>70.489999999999995</v>
+        <v>72.42</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5920,10 +5811,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>68.56</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5931,10 +5822,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>66.790000000000006</v>
+        <v>68.56</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5942,10 +5833,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>64.86</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -5953,10 +5844,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>61.96</v>
+        <v>64.86</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5964,10 +5855,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>59.55</v>
+        <v>61.96</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -5975,10 +5866,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>56.65</v>
+        <v>59.55</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5986,10 +5877,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
-        <v>54.4</v>
+        <v>56.65</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -5997,10 +5888,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
-        <v>52.3</v>
+        <v>54.4</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -6008,10 +5899,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>50.69</v>
+        <v>52.3</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6019,10 +5910,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
-        <v>49.25</v>
+        <v>50.69</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6030,10 +5921,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>49.09</v>
+        <v>49.25</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -6041,10 +5932,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>48.28</v>
+        <v>49.09</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6052,10 +5943,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
-        <v>46.67</v>
+        <v>48.28</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6063,10 +5954,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>44.26</v>
+        <v>46.67</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6074,10 +5965,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>39.909999999999997</v>
+        <v>44.26</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6085,10 +5976,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
-        <v>34.6</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6096,10 +5987,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
-        <v>32.35</v>
+        <v>34.6</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6107,10 +5998,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>30.74</v>
+        <v>32.35</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6118,10 +6009,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>29.77</v>
+        <v>30.74</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6129,10 +6020,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
-        <v>27.36</v>
+        <v>29.77</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6140,10 +6031,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
-        <v>24.95</v>
+        <v>27.36</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6151,10 +6042,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
-        <v>20.12</v>
+        <v>24.95</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6162,144 +6053,12 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
-        <v>17.38</v>
+        <v>20.12</v>
       </c>
       <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>329</v>
-      </c>
-      <c r="B181" s="1">
-        <v>12.88</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>330</v>
-      </c>
-      <c r="B182" s="1">
-        <v>7.56</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>331</v>
-      </c>
-      <c r="B183" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>332</v>
-      </c>
-      <c r="B184" s="1">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>333</v>
-      </c>
-      <c r="B185" s="1">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>334</v>
-      </c>
-      <c r="B186" s="1">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>335</v>
-      </c>
-      <c r="B187" s="1">
-        <v>0</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>336</v>
-      </c>
-      <c r="B188" s="1">
-        <v>0</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>337</v>
-      </c>
-      <c r="B189" s="1">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>338</v>
-      </c>
-      <c r="B190" s="1">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>339</v>
-      </c>
-      <c r="B191" s="1">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>340</v>
-      </c>
-      <c r="B192" s="1">
-        <v>0</v>
-      </c>
-      <c r="C192">
         <v>0</v>
       </c>
     </row>
